--- a/user-guide/site/guides/odoo/templates/cost_sheet_template.xlsx
+++ b/user-guide/site/guides/odoo/templates/cost_sheet_template.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="170" documentId="11_9879216D94407D9D8ED3EB6A7A58E2C3CA643982" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C2C5748-EF59-413C-B96C-8EA12B9B11F7}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\usc-erp\user-guide\docs\guides\odoo\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369E56E2-BC19-4FA1-8E3B-A7AD20EA151F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="-195" windowWidth="38790" windowHeight="21270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樣式1" sheetId="1" r:id="rId1"/>
@@ -204,7 +209,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -291,7 +296,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -606,18 +611,60 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -625,48 +672,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -698,7 +703,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1037,42 +1042,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="14.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="18.125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="14.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="22.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.25" style="2" customWidth="1"/>
+    <col min="1" max="3" width="14.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="18.140625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="55.5" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:14" ht="55.5" customHeight="1">
       <c r="A2" s="25" t="s">
@@ -1163,33 +1168,33 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="48"/>
     </row>
     <row r="5" spans="1:14" s="37" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="34" t="s">
         <v>18</v>
       </c>
@@ -1202,251 +1207,306 @@
       <c r="I5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="44"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="58"/>
     </row>
     <row r="6" spans="1:14" ht="21" customHeight="1">
       <c r="A6" s="21">
         <v>1</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="30"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="47"/>
+      <c r="H6" s="21">
+        <f>F6*G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
+        <f>H6*(1+$J$3)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="40"/>
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1">
       <c r="A7" s="21">
         <v>2</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47"/>
+      <c r="H7" s="21">
+        <f t="shared" ref="H7:H15" si="0">F7*G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" ref="I7:I15" si="1">H7*(1+$J$3)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" spans="1:14" ht="21" customHeight="1">
       <c r="A8" s="21">
         <v>3</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
+      <c r="H8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:14" ht="21" customHeight="1">
       <c r="A9" s="21">
         <v>4</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="47"/>
+      <c r="H9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14" ht="21" customHeight="1">
       <c r="A10" s="21">
         <v>5</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="47"/>
+      <c r="H10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14" ht="21" customHeight="1">
       <c r="A11" s="21">
         <v>6</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="47"/>
+      <c r="H11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="40"/>
     </row>
     <row r="12" spans="1:14" ht="21" customHeight="1">
       <c r="A12" s="21">
         <v>7</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
+      <c r="H12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="40"/>
     </row>
     <row r="13" spans="1:14" ht="21" customHeight="1">
       <c r="A13" s="21">
         <v>8</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="47"/>
+      <c r="H13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="40"/>
     </row>
     <row r="14" spans="1:14" ht="21" customHeight="1">
       <c r="A14" s="21">
         <v>9</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="47"/>
+      <c r="H14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1">
       <c r="A15" s="21">
         <v>10</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="47"/>
+      <c r="H15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="40"/>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="31">
-        <v>0</v>
-      </c>
-      <c r="G16" s="32">
-        <f>SUM(G19:G28)</f>
-        <v>0</v>
-      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="32">
-        <f t="shared" ref="H16:I16" si="0">SUM(H6:H15)</f>
+        <f t="shared" ref="H16:I16" si="2">SUM(H6:H15)</f>
         <v>0</v>
       </c>
       <c r="I16" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="52"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="1:14" ht="24" customHeight="1">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="55"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
     </row>
     <row r="18" spans="1:14" ht="43.5" customHeight="1">
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="27" t="s">
         <v>18</v>
       </c>
@@ -1459,202 +1519,202 @@
       <c r="I18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="58"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="51"/>
     </row>
     <row r="19" spans="1:14" ht="21.75" customHeight="1">
       <c r="A19" s="21">
         <v>1</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="30"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="40"/>
     </row>
     <row r="20" spans="1:14" ht="21.75" customHeight="1">
       <c r="A20" s="21">
         <v>2</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="47"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="40"/>
     </row>
     <row r="21" spans="1:14" ht="21.75" customHeight="1">
       <c r="A21" s="21">
         <v>3</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="47"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="40"/>
     </row>
     <row r="22" spans="1:14" ht="21.75" customHeight="1">
       <c r="A22" s="21">
         <v>4</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="47"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="40"/>
     </row>
     <row r="23" spans="1:14" ht="21.75" customHeight="1">
       <c r="A23" s="21">
         <v>5</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="40"/>
     </row>
     <row r="24" spans="1:14" ht="21.75" customHeight="1">
       <c r="A24" s="21">
         <v>6</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="40"/>
     </row>
     <row r="25" spans="1:14" ht="21.75" customHeight="1">
       <c r="A25" s="21">
         <v>7</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" ht="21.75" customHeight="1">
       <c r="A26" s="21">
         <v>8</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="47"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="40"/>
     </row>
     <row r="27" spans="1:14" ht="21.75" customHeight="1">
       <c r="A27" s="21">
         <v>9</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="22"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="40"/>
     </row>
     <row r="28" spans="1:14" ht="21.75" customHeight="1">
       <c r="A28" s="21">
         <v>10</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="22"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="40"/>
     </row>
     <row r="29" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="50"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="31">
         <v>0</v>
       </c>
@@ -1663,47 +1723,47 @@
         <v>0</v>
       </c>
       <c r="H29" s="32">
-        <f t="shared" ref="H29:I29" si="1">SUM(H19:H28)</f>
+        <f t="shared" ref="H29:I29" si="3">SUM(H19:H28)</f>
         <v>0</v>
       </c>
       <c r="I29" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="52"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="45"/>
     </row>
     <row r="30" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="41"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
     </row>
     <row r="31" spans="1:14" ht="45.75" customHeight="1">
       <c r="A31" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
       <c r="F31" s="27" t="s">
         <v>18</v>
       </c>
@@ -1716,76 +1776,76 @@
       <c r="I31" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="56" t="s">
+      <c r="J31" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="58"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="51"/>
     </row>
     <row r="32" spans="1:14" ht="22.5" customHeight="1">
       <c r="A32" s="21">
         <v>1</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="30"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="47"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="40"/>
     </row>
     <row r="33" spans="1:14" ht="22.5" customHeight="1">
       <c r="A33" s="21">
         <v>2</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="47"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
     </row>
     <row r="34" spans="1:14" ht="22.5" customHeight="1">
       <c r="A34" s="21">
         <v>3</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="47"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="40"/>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="31">
         <v>0</v>
       </c>
@@ -1794,27 +1854,64 @@
         <v>0</v>
       </c>
       <c r="H35" s="32">
-        <f t="shared" ref="H35:I35" si="2">SUM(H32:H34)</f>
+        <f t="shared" ref="H35:I35" si="4">SUM(H32:H34)</f>
         <v>0</v>
       </c>
       <c r="I35" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="52"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="A17:N17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="J25:N25"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="J32:N32"/>
     <mergeCell ref="B26:E26"/>
@@ -1828,49 +1925,12 @@
     <mergeCell ref="A30:N30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="J31:N31"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="A17:N17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="J35:N35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1884,9 +1944,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="25.75" style="11" customWidth="1"/>
+    <col min="1" max="8" width="25.7109375" style="11" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1986,7 +2046,7 @@
       <c r="G5" s="63"/>
       <c r="H5" s="64"/>
     </row>
-    <row r="6" spans="1:8" ht="17.25">
+    <row r="6" spans="1:8" ht="37.5">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -2340,26 +2400,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a8a9db88-6210-4057-a0d8-44c89d4b38f2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e2014dfb-c972-41eb-95c7-12051538aa8e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7F5EA6AD3738641BC1F1773CDFD3028" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0b7af33c6423de77b91bbbfb6d22c745">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e2014dfb-c972-41eb-95c7-12051538aa8e" xmlns:ns3="a8a9db88-6210-4057-a0d8-44c89d4b38f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be7249ab4bc4b6a15fdce7bfefb4e3f1" ns2:_="" ns3:_="">
     <xsd:import namespace="e2014dfb-c972-41eb-95c7-12051538aa8e"/>
@@ -2588,14 +2628,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a8a9db88-6210-4057-a0d8-44c89d4b38f2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e2014dfb-c972-41eb-95c7-12051538aa8e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D1FED41-1857-4D57-89AC-6458792CF7F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D45AF5-E90B-4F01-9D57-49B5FE40A3D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e2014dfb-c972-41eb-95c7-12051538aa8e"/>
+    <ds:schemaRef ds:uri="a8a9db88-6210-4057-a0d8-44c89d4b38f2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE615464-2C24-4D9D-ACD5-75379E1AA9C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE615464-2C24-4D9D-ACD5-75379E1AA9C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D45AF5-E90B-4F01-9D57-49B5FE40A3D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D1FED41-1857-4D57-89AC-6458792CF7F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a8a9db88-6210-4057-a0d8-44c89d4b38f2"/>
+    <ds:schemaRef ds:uri="e2014dfb-c972-41eb-95c7-12051538aa8e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>